--- a/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 23.12.20.xlsx
+++ b/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 23.12.20.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
   <si>
     <t>RSO Name</t>
   </si>
@@ -461,13 +461,13 @@
     <t>22.12.2020</t>
   </si>
   <si>
-    <t>Date: 23-12-2020</t>
-  </si>
-  <si>
     <t>Date :24-12-2020</t>
   </si>
   <si>
     <t>23.12.2020</t>
+  </si>
+  <si>
+    <t>23-12-2020</t>
   </si>
 </sst>
 </file>
@@ -1782,6 +1782,9 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1880,9 +1883,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2421,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2473,162 +2473,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="25.5" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="161"/>
-      <c r="AJ1" s="161"/>
-      <c r="AK1" s="161"/>
-      <c r="AL1" s="161"/>
-      <c r="AM1" s="161"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-      <c r="AS1" s="161"/>
-      <c r="AT1" s="161"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="162"/>
+      <c r="AH1" s="162"/>
+      <c r="AI1" s="162"/>
+      <c r="AJ1" s="162"/>
+      <c r="AK1" s="162"/>
+      <c r="AL1" s="162"/>
+      <c r="AM1" s="162"/>
+      <c r="AN1" s="162"/>
+      <c r="AO1" s="162"/>
+      <c r="AP1" s="162"/>
+      <c r="AQ1" s="162"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="162"/>
+      <c r="AT1" s="162"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="162"/>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="162"/>
-      <c r="AM2" s="162"/>
-      <c r="AN2" s="162"/>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="162"/>
-      <c r="AR2" s="162"/>
-      <c r="AS2" s="162"/>
-      <c r="AT2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="163"/>
+      <c r="AJ2" s="163"/>
+      <c r="AK2" s="163"/>
+      <c r="AL2" s="163"/>
+      <c r="AM2" s="163"/>
+      <c r="AN2" s="163"/>
+      <c r="AO2" s="163"/>
+      <c r="AP2" s="163"/>
+      <c r="AQ2" s="163"/>
+      <c r="AR2" s="163"/>
+      <c r="AS2" s="163"/>
+      <c r="AT2" s="163"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="165"/>
-      <c r="AM3" s="165"/>
-      <c r="AN3" s="165"/>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="165"/>
-      <c r="AR3" s="165"/>
-      <c r="AS3" s="165"/>
-      <c r="AT3" s="165"/>
+      <c r="A3" s="164" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="165"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="166"/>
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="166"/>
+      <c r="AN3" s="166"/>
+      <c r="AO3" s="166"/>
+      <c r="AP3" s="166"/>
+      <c r="AQ3" s="166"/>
+      <c r="AR3" s="166"/>
+      <c r="AS3" s="166"/>
+      <c r="AT3" s="166"/>
     </row>
     <row r="4" spans="1:56" ht="15">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="88">
         <v>0</v>
       </c>
@@ -2653,10 +2653,10 @@
       <c r="L4" s="150">
         <v>300</v>
       </c>
-      <c r="M4" s="166">
-        <v>0</v>
-      </c>
-      <c r="N4" s="166"/>
+      <c r="M4" s="167">
+        <v>0</v>
+      </c>
+      <c r="N4" s="167"/>
       <c r="O4" s="150">
         <v>1380</v>
       </c>
@@ -2679,24 +2679,24 @@
       <c r="Z4" s="88"/>
       <c r="AA4" s="88"/>
       <c r="AB4" s="88"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="167"/>
-      <c r="AF4" s="167"/>
-      <c r="AG4" s="167"/>
-      <c r="AH4" s="167"/>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="167"/>
-      <c r="AK4" s="167"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="167"/>
-      <c r="AP4" s="167"/>
-      <c r="AQ4" s="167"/>
-      <c r="AR4" s="167"/>
-      <c r="AS4" s="167"/>
-      <c r="AT4" s="167"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="168"/>
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="168"/>
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="168"/>
+      <c r="AQ4" s="168"/>
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="168"/>
+      <c r="AT4" s="168"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
@@ -2708,12 +2708,12 @@
       <c r="BD4" s="6"/>
     </row>
     <row r="5" spans="1:56" ht="15">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
       <c r="G5" s="88"/>
@@ -2746,24 +2746,24 @@
       <c r="Z5" s="88"/>
       <c r="AA5" s="88"/>
       <c r="AB5" s="88"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="167"/>
-      <c r="AP5" s="167"/>
-      <c r="AQ5" s="167"/>
-      <c r="AR5" s="167"/>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="167"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="168"/>
+      <c r="AH5" s="168"/>
+      <c r="AI5" s="168"/>
+      <c r="AJ5" s="168"/>
+      <c r="AK5" s="168"/>
+      <c r="AL5" s="168"/>
+      <c r="AM5" s="168"/>
+      <c r="AN5" s="168"/>
+      <c r="AO5" s="168"/>
+      <c r="AP5" s="168"/>
+      <c r="AQ5" s="168"/>
+      <c r="AR5" s="168"/>
+      <c r="AS5" s="168"/>
+      <c r="AT5" s="168"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -2781,9 +2781,7 @@
       <c r="B6" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="91" t="s">
-        <v>0</v>
-      </c>
+      <c r="C6" s="91"/>
       <c r="D6" s="92" t="s">
         <v>1</v>
       </c>
@@ -2934,9 +2932,7 @@
       <c r="C7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="40">
-        <v>26733</v>
-      </c>
+      <c r="D7" s="40"/>
       <c r="E7" s="41"/>
       <c r="F7" s="40"/>
       <c r="G7" s="41"/>
@@ -2948,9 +2944,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
-      <c r="P7" s="41">
-        <v>160</v>
-      </c>
+      <c r="P7" s="41"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -2963,60 +2957,32 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="54">
-        <f>D7*1+E7*999+F7*499+G7*75+H7*50+I7*30+K7*20+L7*19+M7*10+P7*9+N7*10+J7*29+S7*191+V7*4744+W7*110+X7*450+Y7*110+Z7*110+AA7*200+AB7*182+U7*30+T7*350+R7*4+Q7*5+O7*9</f>
-        <v>28173</v>
-      </c>
-      <c r="AD7" s="7">
-        <f t="shared" ref="AD7:AD28" si="0">D7*1</f>
-        <v>26733</v>
-      </c>
-      <c r="AE7" s="8">
-        <f t="shared" ref="AE7:AE28" si="1">D7*2.75%</f>
-        <v>735.15750000000003</v>
-      </c>
-      <c r="AF7" s="8">
-        <f t="shared" ref="AF7:AF28" si="2">AD7*0.95%</f>
-        <v>253.96349999999998</v>
-      </c>
-      <c r="AG7" s="8">
-        <f>SUM(E7*999+F7*499+G7*75+H7*50+I7*30+K7*20+L7*19+M7*10+P7*9+N7*10+J7*29+R7*4+Q7*5+O7*9)*2.8%</f>
-        <v>40.319999999999993</v>
-      </c>
-      <c r="AH7" s="8">
-        <f t="shared" ref="AH7:AH28" si="3">SUM(E7*999+F7*499+G7*75+H7*50+I7*30+J7*29+K7*20+L7*19+M7*10+N7*10+O7*9+P7*9+Q7*5+R7*4)*0.95%</f>
-        <v>13.68</v>
-      </c>
-      <c r="AI7" s="8">
-        <f>V7*0+W7*0+Y7*0+Z7*0+U7*0+AA7*0+AB7*9+S7*0</f>
-        <v>0</v>
-      </c>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="16"/>
       <c r="AM7" s="16"/>
-      <c r="AN7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="108">
-        <f>SUM(D7:P7)*2.75%</f>
-        <v>739.5575</v>
-      </c>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="108"/>
       <c r="AP7" s="57"/>
-      <c r="AQ7" s="58">
-        <v>188</v>
-      </c>
+      <c r="AQ7" s="58"/>
       <c r="AR7" s="26">
         <f>AC7-AE7-AG7-AJ7-AK7-AL7-AM7-AN7-AP7-AQ7</f>
-        <v>27209.522499999999</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="51">
-        <f t="shared" ref="AS7:AS19" si="4">AF7+AH7+AI7</f>
-        <v>267.64349999999996</v>
+        <f t="shared" ref="AS7:AS19" si="0">AF7+AH7+AI7</f>
+        <v>0</v>
       </c>
       <c r="AT7" s="152">
-        <f t="shared" ref="AT7:AT19" si="5">AS7-AQ7-AN7</f>
-        <v>79.64349999999996</v>
+        <f t="shared" ref="AT7:AT19" si="1">AS7-AQ7-AN7</f>
+        <v>0</v>
       </c>
       <c r="AU7" s="11"/>
       <c r="AV7" s="25"/>
@@ -3039,25 +3005,19 @@
       <c r="C8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="45">
-        <v>18000</v>
-      </c>
+      <c r="D8" s="45"/>
       <c r="E8" s="46"/>
       <c r="F8" s="45"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
-      <c r="K8" s="46">
-        <v>50</v>
-      </c>
+      <c r="K8" s="46"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
-      <c r="P8" s="46">
-        <v>130</v>
-      </c>
+      <c r="P8" s="46"/>
       <c r="Q8" s="148"/>
       <c r="R8" s="148"/>
       <c r="S8" s="148"/>
@@ -3070,60 +3030,32 @@
       <c r="Z8" s="148"/>
       <c r="AA8" s="148"/>
       <c r="AB8" s="148"/>
-      <c r="AC8" s="55">
-        <f t="shared" ref="AC8:AC28" si="6">D8*1+E8*999+F8*499+G8*75+H8*50+I8*30+K8*20+L8*19+M8*10+P8*9+N8*10+J8*29+S8*191+V8*4744+W8*110+X8*450+Y8*110+Z8*110+AA8*200+AB8*182+U8*30+T8*350+R8*4+Q8*5+O8*9</f>
-        <v>20170</v>
-      </c>
-      <c r="AD8" s="148">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="AE8" s="18">
-        <f t="shared" si="1"/>
-        <v>495</v>
-      </c>
-      <c r="AF8" s="18">
-        <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="AG8" s="8">
-        <f t="shared" ref="AG8:AG28" si="7">SUM(E8*999+F8*499+G8*75+H8*50+I8*30+K8*20+L8*19+M8*10+P8*9+N8*10+J8*29+R8*4+Q8*5+O8*9)*2.75%</f>
-        <v>59.674999999999997</v>
-      </c>
-      <c r="AH8" s="18">
-        <f t="shared" si="3"/>
-        <v>20.614999999999998</v>
-      </c>
-      <c r="AI8" s="18">
-        <f t="shared" ref="AI8:AI28" si="8">V8*0+W8*0+Y8*0+Z8*0+U8*0+AA8*0+AB8*9+S8*0</f>
-        <v>0</v>
-      </c>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
-      <c r="AN8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="108">
-        <f t="shared" ref="AO8:AO18" si="9">SUM(D8:P8)*2.75%</f>
-        <v>499.95</v>
-      </c>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="108"/>
       <c r="AP8" s="3"/>
-      <c r="AQ8" s="58">
-        <v>146</v>
-      </c>
+      <c r="AQ8" s="58"/>
       <c r="AR8" s="26">
-        <f t="shared" ref="AR8:AR28" si="10">AC8-AE8-AG8-AJ8-AK8-AL8-AM8-AN8-AP8-AQ8</f>
-        <v>19469.325000000001</v>
+        <f t="shared" ref="AR8:AR28" si="2">AC8-AE8-AG8-AJ8-AK8-AL8-AM8-AN8-AP8-AQ8</f>
+        <v>0</v>
       </c>
       <c r="AS8" s="52">
-        <f t="shared" si="4"/>
-        <v>191.61500000000001</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT8" s="153">
-        <f t="shared" si="5"/>
-        <v>45.615000000000009</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AU8" s="6"/>
       <c r="AV8" s="62"/>
@@ -3146,9 +3078,7 @@
       <c r="C9" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="45">
-        <v>10695</v>
-      </c>
+      <c r="D9" s="45"/>
       <c r="E9" s="46"/>
       <c r="F9" s="45"/>
       <c r="G9" s="46"/>
@@ -3160,9 +3090,7 @@
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
       <c r="O9" s="46"/>
-      <c r="P9" s="46">
-        <v>100</v>
-      </c>
+      <c r="P9" s="46"/>
       <c r="Q9" s="148"/>
       <c r="R9" s="148"/>
       <c r="S9" s="148"/>
@@ -3175,60 +3103,32 @@
       <c r="Z9" s="148"/>
       <c r="AA9" s="148"/>
       <c r="AB9" s="148"/>
-      <c r="AC9" s="55">
-        <f t="shared" si="6"/>
-        <v>11595</v>
-      </c>
-      <c r="AD9" s="148">
-        <f t="shared" si="0"/>
-        <v>10695</v>
-      </c>
-      <c r="AE9" s="18">
-        <f t="shared" si="1"/>
-        <v>294.11250000000001</v>
-      </c>
-      <c r="AF9" s="18">
-        <f t="shared" si="2"/>
-        <v>101.60249999999999</v>
-      </c>
-      <c r="AG9" s="8">
-        <f t="shared" si="7"/>
-        <v>24.75</v>
-      </c>
-      <c r="AH9" s="18">
-        <f t="shared" si="3"/>
-        <v>8.5499999999999989</v>
-      </c>
-      <c r="AI9" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
-      <c r="AN9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="108">
-        <f t="shared" si="9"/>
-        <v>296.86250000000001</v>
-      </c>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="108"/>
       <c r="AP9" s="3"/>
-      <c r="AQ9" s="58">
-        <v>75</v>
-      </c>
+      <c r="AQ9" s="58"/>
       <c r="AR9" s="26">
-        <f t="shared" si="10"/>
-        <v>11201.137500000001</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AS9" s="52">
-        <f t="shared" si="4"/>
-        <v>110.15249999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT9" s="153">
-        <f t="shared" si="5"/>
-        <v>35.152499999999989</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AU9" s="6"/>
       <c r="AV9" s="120"/>
@@ -3251,9 +3151,7 @@
       <c r="C10" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="45">
-        <v>13124</v>
-      </c>
+      <c r="D10" s="45"/>
       <c r="E10" s="46"/>
       <c r="F10" s="45"/>
       <c r="G10" s="46"/>
@@ -3278,60 +3176,32 @@
       <c r="Z10" s="148"/>
       <c r="AA10" s="148"/>
       <c r="AB10" s="148"/>
-      <c r="AC10" s="55">
-        <f t="shared" si="6"/>
-        <v>13124</v>
-      </c>
-      <c r="AD10" s="148">
-        <f>D10*1</f>
-        <v>13124</v>
-      </c>
-      <c r="AE10" s="18">
-        <f>D10*2.75%</f>
-        <v>360.91</v>
-      </c>
-      <c r="AF10" s="18">
-        <f>AD10*0.95%</f>
-        <v>124.678</v>
-      </c>
-      <c r="AG10" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="18">
-        <f>V10*0+W10*0+Y10*0+Z10*0+U10*0+AA10*0+AB10*9+S10*0</f>
-        <v>0</v>
-      </c>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="108">
-        <f t="shared" si="9"/>
-        <v>360.91</v>
-      </c>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="108"/>
       <c r="AP10" s="3"/>
-      <c r="AQ10" s="58">
-        <v>93</v>
-      </c>
+      <c r="AQ10" s="58"/>
       <c r="AR10" s="26">
-        <f t="shared" si="10"/>
-        <v>12670.09</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AS10" s="52">
         <f>AF10+AH10+AI10</f>
-        <v>124.678</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="153">
         <f>AS10-AQ10-AN10</f>
-        <v>31.677999999999997</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="6"/>
       <c r="AV10" s="120"/>
@@ -3354,25 +3224,19 @@
       <c r="C11" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="45">
-        <v>23027</v>
-      </c>
+      <c r="D11" s="45"/>
       <c r="E11" s="46"/>
       <c r="F11" s="45"/>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
-      <c r="K11" s="46">
-        <v>200</v>
-      </c>
+      <c r="K11" s="46"/>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
       <c r="N11" s="46"/>
       <c r="O11" s="154"/>
-      <c r="P11" s="46">
-        <v>200</v>
-      </c>
+      <c r="P11" s="46"/>
       <c r="Q11" s="148"/>
       <c r="R11" s="148"/>
       <c r="S11" s="148"/>
@@ -3385,60 +3249,32 @@
       <c r="Z11" s="148"/>
       <c r="AA11" s="148"/>
       <c r="AB11" s="148"/>
-      <c r="AC11" s="55">
-        <f t="shared" si="6"/>
-        <v>28827</v>
-      </c>
-      <c r="AD11" s="148">
-        <f t="shared" si="0"/>
-        <v>23027</v>
-      </c>
-      <c r="AE11" s="18">
-        <f t="shared" si="1"/>
-        <v>633.24249999999995</v>
-      </c>
-      <c r="AF11" s="18">
-        <f t="shared" si="2"/>
-        <v>218.75649999999999</v>
-      </c>
-      <c r="AG11" s="8">
-        <f t="shared" si="7"/>
-        <v>159.5</v>
-      </c>
-      <c r="AH11" s="18">
-        <f t="shared" si="3"/>
-        <v>55.1</v>
-      </c>
-      <c r="AI11" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
-      <c r="AN11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="108">
-        <f t="shared" si="9"/>
-        <v>644.24249999999995</v>
-      </c>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="108"/>
       <c r="AP11" s="3"/>
-      <c r="AQ11" s="58">
-        <v>204</v>
-      </c>
+      <c r="AQ11" s="58"/>
       <c r="AR11" s="26">
-        <f t="shared" si="10"/>
-        <v>27830.2575</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AS11" s="52">
-        <f t="shared" si="4"/>
-        <v>273.85649999999998</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT11" s="153">
-        <f t="shared" si="5"/>
-        <v>69.856499999999983</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AU11" s="6"/>
       <c r="AV11" s="15"/>
@@ -3461,9 +3297,7 @@
       <c r="C12" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="45">
-        <v>10071</v>
-      </c>
+      <c r="D12" s="45"/>
       <c r="E12" s="46"/>
       <c r="F12" s="45"/>
       <c r="G12" s="46"/>
@@ -3475,9 +3309,7 @@
       <c r="M12" s="46"/>
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
-      <c r="P12" s="46">
-        <v>100</v>
-      </c>
+      <c r="P12" s="46"/>
       <c r="Q12" s="148"/>
       <c r="R12" s="148"/>
       <c r="S12" s="148"/>
@@ -3490,60 +3322,32 @@
       <c r="Z12" s="148"/>
       <c r="AA12" s="148"/>
       <c r="AB12" s="148"/>
-      <c r="AC12" s="55">
-        <f t="shared" si="6"/>
-        <v>10971</v>
-      </c>
-      <c r="AD12" s="148">
-        <f>D12*1</f>
-        <v>10071</v>
-      </c>
-      <c r="AE12" s="18">
-        <f>D12*2.75%</f>
-        <v>276.95249999999999</v>
-      </c>
-      <c r="AF12" s="18">
-        <f>AD12*0.95%</f>
-        <v>95.674499999999995</v>
-      </c>
-      <c r="AG12" s="8">
-        <f t="shared" si="7"/>
-        <v>24.75</v>
-      </c>
-      <c r="AH12" s="18">
-        <f t="shared" si="3"/>
-        <v>8.5499999999999989</v>
-      </c>
-      <c r="AI12" s="18">
-        <f>V12*0+W12*0+Y12*0+Z12*0+U12*0+AA12*0+AB12*9+S12*0</f>
-        <v>0</v>
-      </c>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
-      <c r="AN12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="108">
-        <f t="shared" si="9"/>
-        <v>279.70249999999999</v>
-      </c>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="108"/>
       <c r="AP12" s="3"/>
-      <c r="AQ12" s="58">
-        <v>149</v>
-      </c>
+      <c r="AQ12" s="58"/>
       <c r="AR12" s="26">
-        <f t="shared" si="10"/>
-        <v>10520.297500000001</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AS12" s="52">
         <f>AF12+AH12+AI12</f>
-        <v>104.22449999999999</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="153">
         <f>AS12-AQ12-AN12</f>
-        <v>-44.775500000000008</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="6"/>
       <c r="AV12" s="120"/>
@@ -3566,25 +3370,19 @@
       <c r="C13" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="45">
-        <v>20580</v>
-      </c>
+      <c r="D13" s="45"/>
       <c r="E13" s="46"/>
       <c r="F13" s="45"/>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
-      <c r="K13" s="46">
-        <v>70</v>
-      </c>
+      <c r="K13" s="46"/>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
       <c r="N13" s="46"/>
       <c r="O13" s="46"/>
-      <c r="P13" s="46">
-        <v>90</v>
-      </c>
+      <c r="P13" s="46"/>
       <c r="Q13" s="148"/>
       <c r="R13" s="148"/>
       <c r="S13" s="148"/>
@@ -3597,60 +3395,32 @@
       <c r="Z13" s="148"/>
       <c r="AA13" s="148"/>
       <c r="AB13" s="148"/>
-      <c r="AC13" s="55">
-        <f t="shared" si="6"/>
-        <v>22790</v>
-      </c>
-      <c r="AD13" s="148">
-        <f t="shared" si="0"/>
-        <v>20580</v>
-      </c>
-      <c r="AE13" s="18">
-        <f t="shared" si="1"/>
-        <v>565.95000000000005</v>
-      </c>
-      <c r="AF13" s="18">
-        <f t="shared" si="2"/>
-        <v>195.51</v>
-      </c>
-      <c r="AG13" s="8">
-        <f t="shared" si="7"/>
-        <v>60.774999999999999</v>
-      </c>
-      <c r="AH13" s="18">
-        <f t="shared" si="3"/>
-        <v>20.995000000000001</v>
-      </c>
-      <c r="AI13" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
-      <c r="AN13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="108">
-        <f t="shared" si="9"/>
-        <v>570.35</v>
-      </c>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="108"/>
       <c r="AP13" s="3"/>
-      <c r="AQ13" s="58">
-        <v>200</v>
-      </c>
+      <c r="AQ13" s="58"/>
       <c r="AR13" s="26">
-        <f t="shared" si="10"/>
-        <v>21963.274999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AS13" s="52">
-        <f t="shared" si="4"/>
-        <v>216.505</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT13" s="153">
         <f>AS13-AQ13-AN13</f>
-        <v>16.504999999999995</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="6"/>
       <c r="AV13" s="120"/>
@@ -3673,9 +3443,7 @@
       <c r="C14" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="45">
-        <v>10792</v>
-      </c>
+      <c r="D14" s="45"/>
       <c r="E14" s="46"/>
       <c r="F14" s="45"/>
       <c r="G14" s="46"/>
@@ -3700,60 +3468,32 @@
       <c r="Z14" s="148"/>
       <c r="AA14" s="148"/>
       <c r="AB14" s="148"/>
-      <c r="AC14" s="55">
-        <f t="shared" si="6"/>
-        <v>10792</v>
-      </c>
-      <c r="AD14" s="148">
-        <f t="shared" si="0"/>
-        <v>10792</v>
-      </c>
-      <c r="AE14" s="18">
-        <f t="shared" si="1"/>
-        <v>296.78000000000003</v>
-      </c>
-      <c r="AF14" s="18">
-        <f t="shared" si="2"/>
-        <v>102.524</v>
-      </c>
-      <c r="AG14" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
-      <c r="AN14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="108">
-        <f t="shared" si="9"/>
-        <v>296.78000000000003</v>
-      </c>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="108"/>
       <c r="AP14" s="3"/>
-      <c r="AQ14" s="58">
-        <v>120</v>
-      </c>
+      <c r="AQ14" s="58"/>
       <c r="AR14" s="26">
-        <f t="shared" si="10"/>
-        <v>10375.219999999999</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AS14" s="52">
-        <f t="shared" si="4"/>
-        <v>102.524</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT14" s="151">
-        <f t="shared" si="5"/>
-        <v>-17.475999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AU14" s="6"/>
       <c r="AV14" s="120"/>
@@ -3776,9 +3516,7 @@
       <c r="C15" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="45">
-        <v>8748</v>
-      </c>
+      <c r="D15" s="45"/>
       <c r="E15" s="46"/>
       <c r="F15" s="45"/>
       <c r="G15" s="46"/>
@@ -3803,60 +3541,32 @@
       <c r="Z15" s="148"/>
       <c r="AA15" s="148"/>
       <c r="AB15" s="148"/>
-      <c r="AC15" s="55">
-        <f t="shared" si="6"/>
-        <v>8748</v>
-      </c>
-      <c r="AD15" s="148">
-        <f t="shared" si="0"/>
-        <v>8748</v>
-      </c>
-      <c r="AE15" s="18">
-        <f t="shared" si="1"/>
-        <v>240.57</v>
-      </c>
-      <c r="AF15" s="18">
-        <f t="shared" si="2"/>
-        <v>83.105999999999995</v>
-      </c>
-      <c r="AG15" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
-      <c r="AN15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="108">
-        <f t="shared" si="9"/>
-        <v>240.57</v>
-      </c>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="108"/>
       <c r="AP15" s="3"/>
-      <c r="AQ15" s="58">
-        <v>72</v>
-      </c>
+      <c r="AQ15" s="58"/>
       <c r="AR15" s="26">
-        <f t="shared" si="10"/>
-        <v>8435.43</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AS15" s="52">
         <f>AF15+AH15+AI15</f>
-        <v>83.105999999999995</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="153">
         <f>AS15-AQ15-AN15</f>
-        <v>11.105999999999995</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="6"/>
       <c r="AV15" s="120"/>
@@ -3879,9 +3589,7 @@
       <c r="C16" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="45">
-        <v>10509</v>
-      </c>
+      <c r="D16" s="45"/>
       <c r="E16" s="46"/>
       <c r="F16" s="45"/>
       <c r="G16" s="46"/>
@@ -3906,60 +3614,32 @@
       <c r="Z16" s="148"/>
       <c r="AA16" s="148"/>
       <c r="AB16" s="148"/>
-      <c r="AC16" s="55">
-        <f t="shared" si="6"/>
-        <v>10509</v>
-      </c>
-      <c r="AD16" s="148">
-        <f t="shared" si="0"/>
-        <v>10509</v>
-      </c>
-      <c r="AE16" s="18">
-        <f t="shared" si="1"/>
-        <v>288.9975</v>
-      </c>
-      <c r="AF16" s="18">
-        <f t="shared" si="2"/>
-        <v>99.835499999999996</v>
-      </c>
-      <c r="AG16" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
-      <c r="AN16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="108">
-        <f t="shared" si="9"/>
-        <v>288.9975</v>
-      </c>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="108"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="58">
-        <v>110</v>
-      </c>
+      <c r="AQ16" s="58"/>
       <c r="AR16" s="26">
         <f>AC16-AE16-AG16-AJ16-AK16-AL16-AM16-AN16-AP16-AQ16</f>
-        <v>10110.002500000001</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="52">
-        <f t="shared" si="4"/>
-        <v>99.835499999999996</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AT16" s="153">
-        <f t="shared" si="5"/>
-        <v>-10.164500000000004</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AU16" s="6"/>
       <c r="AV16" s="120"/>
@@ -3982,9 +3662,7 @@
       <c r="C17" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="45">
-        <v>12745</v>
-      </c>
+      <c r="D17" s="45"/>
       <c r="E17" s="46"/>
       <c r="F17" s="45"/>
       <c r="G17" s="46"/>
@@ -4009,60 +3687,32 @@
       <c r="Z17" s="148"/>
       <c r="AA17" s="148"/>
       <c r="AB17" s="148"/>
-      <c r="AC17" s="55">
-        <f t="shared" si="6"/>
-        <v>12745</v>
-      </c>
-      <c r="AD17" s="148">
-        <f>D17*1</f>
-        <v>12745</v>
-      </c>
-      <c r="AE17" s="18">
-        <f>D17*2.75%</f>
-        <v>350.48750000000001</v>
-      </c>
-      <c r="AF17" s="18">
-        <f>AD17*0.95%</f>
-        <v>121.0775</v>
-      </c>
-      <c r="AG17" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="18">
-        <f>V17*0+W17*0+Y17*0+Z17*0+U17*0+AA17*0+AB17*9+S17*0</f>
-        <v>0</v>
-      </c>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="148"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
-      <c r="AN17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="108">
-        <f t="shared" si="9"/>
-        <v>350.48750000000001</v>
-      </c>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="108"/>
       <c r="AP17" s="3"/>
-      <c r="AQ17" s="58">
-        <v>95</v>
-      </c>
+      <c r="AQ17" s="58"/>
       <c r="AR17" s="26">
         <f>AC17-AE17-AG17-AJ17-AK17-AL17-AM17-AN17-AP17-AQ17</f>
-        <v>12299.512500000001</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="52">
         <f>AF17+AH17+AI17</f>
-        <v>121.0775</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="153">
         <f>AS17-AQ17-AN17</f>
-        <v>26.077500000000001</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="6"/>
       <c r="AV17" s="120"/>
@@ -4085,9 +3735,7 @@
       <c r="C18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="45">
-        <v>8124</v>
-      </c>
+      <c r="D18" s="45"/>
       <c r="E18" s="46"/>
       <c r="F18" s="45"/>
       <c r="G18" s="46"/>
@@ -4112,60 +3760,32 @@
       <c r="Z18" s="148"/>
       <c r="AA18" s="148"/>
       <c r="AB18" s="148"/>
-      <c r="AC18" s="55">
-        <f t="shared" si="6"/>
-        <v>8124</v>
-      </c>
-      <c r="AD18" s="148">
-        <f>D18*1</f>
-        <v>8124</v>
-      </c>
-      <c r="AE18" s="18">
-        <f>D18*2.75%</f>
-        <v>223.41</v>
-      </c>
-      <c r="AF18" s="18">
-        <f>AD18*0.95%</f>
-        <v>77.177999999999997</v>
-      </c>
-      <c r="AG18" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="18">
-        <f>V18*0+W18*0+Y18*0+Z18*0+U18*0+AA18*0+AB18*9+S18*0</f>
-        <v>0</v>
-      </c>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="148"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
       <c r="AM18" s="9"/>
-      <c r="AN18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="108">
-        <f t="shared" si="9"/>
-        <v>223.41</v>
-      </c>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="108"/>
       <c r="AP18" s="3"/>
-      <c r="AQ18" s="58">
-        <v>100</v>
-      </c>
+      <c r="AQ18" s="58"/>
       <c r="AR18" s="26">
-        <f t="shared" si="10"/>
-        <v>7800.59</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AS18" s="52">
         <f>AF18+AH18+AI18</f>
-        <v>77.177999999999997</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="153">
         <f>AS18-AQ18-AN18</f>
-        <v>-22.822000000000003</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="6"/>
       <c r="AV18" s="120"/>
@@ -4209,54 +3829,31 @@
       <c r="Z19" s="148"/>
       <c r="AA19" s="148"/>
       <c r="AB19" s="148"/>
-      <c r="AC19" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
-      <c r="AN19" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN19" s="16"/>
       <c r="AO19" s="108"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="59"/>
       <c r="AR19" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS19" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AU19" s="6"/>
@@ -4301,41 +3898,18 @@
       <c r="Z20" s="148"/>
       <c r="AA20" s="148"/>
       <c r="AB20" s="148"/>
-      <c r="AC20" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="148"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
-      <c r="AN20" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN20" s="16"/>
       <c r="AO20" s="108"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="59"/>
@@ -4393,54 +3967,31 @@
       <c r="Z21" s="148"/>
       <c r="AA21" s="148"/>
       <c r="AB21" s="148"/>
-      <c r="AC21" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
-      <c r="AN21" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN21" s="16"/>
       <c r="AO21" s="108"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="59"/>
       <c r="AR21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS21" s="52">
-        <f t="shared" ref="AS21:AS28" si="11">AF21+AH21+AI21</f>
+        <f t="shared" ref="AS21:AS28" si="3">AF21+AH21+AI21</f>
         <v>0</v>
       </c>
       <c r="AT21" s="52">
-        <f t="shared" ref="AT21:AT28" si="12">AS21-AQ21-AN21</f>
+        <f t="shared" ref="AT21:AT28" si="4">AS21-AQ21-AN21</f>
         <v>0</v>
       </c>
       <c r="AU21" s="6"/>
@@ -4485,41 +4036,18 @@
       <c r="Z22" s="148"/>
       <c r="AA22" s="148"/>
       <c r="AB22" s="148"/>
-      <c r="AC22" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
-      <c r="AN22" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN22" s="16"/>
       <c r="AO22" s="108"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="59"/>
@@ -4577,54 +4105,31 @@
       <c r="Z23" s="148"/>
       <c r="AA23" s="148"/>
       <c r="AB23" s="148"/>
-      <c r="AC23" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
-      <c r="AN23" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN23" s="16"/>
       <c r="AO23" s="108"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="59"/>
       <c r="AR23" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS23" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT23" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU23" s="6"/>
@@ -4669,54 +4174,31 @@
       <c r="Z24" s="148"/>
       <c r="AA24" s="148"/>
       <c r="AB24" s="148"/>
-      <c r="AC24" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
       <c r="AJ24" s="148"/>
       <c r="AK24" s="148"/>
       <c r="AL24" s="19"/>
       <c r="AM24" s="19"/>
-      <c r="AN24" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN24" s="16"/>
       <c r="AO24" s="108"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="59"/>
       <c r="AR24" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS24" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT24" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU24" s="6"/>
@@ -4761,54 +4243,31 @@
       <c r="Z25" s="148"/>
       <c r="AA25" s="148"/>
       <c r="AB25" s="148"/>
-      <c r="AC25" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="148"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
-      <c r="AN25" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN25" s="16"/>
       <c r="AO25" s="108"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="59"/>
       <c r="AR25" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS25" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT25" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU25" s="6"/>
@@ -4853,54 +4312,31 @@
       <c r="Z26" s="148"/>
       <c r="AA26" s="148"/>
       <c r="AB26" s="148"/>
-      <c r="AC26" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
-      <c r="AN26" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN26" s="16"/>
       <c r="AO26" s="108"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="59"/>
       <c r="AR26" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS26" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT26" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU26" s="6"/>
@@ -4945,54 +4381,31 @@
       <c r="Z27" s="148"/>
       <c r="AA27" s="148"/>
       <c r="AB27" s="148"/>
-      <c r="AC27" s="55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="148">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
       <c r="AJ27" s="9"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
-      <c r="AN27" s="16">
-        <v>0</v>
-      </c>
+      <c r="AN27" s="16"/>
       <c r="AO27" s="108"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="59"/>
       <c r="AR27" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS27" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT27" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU27" s="6"/>
@@ -5037,54 +4450,31 @@
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
-      <c r="AC28" s="56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
       <c r="AJ28" s="29"/>
       <c r="AK28" s="29"/>
       <c r="AL28" s="29"/>
       <c r="AM28" s="29"/>
-      <c r="AN28" s="30">
-        <v>0</v>
-      </c>
+      <c r="AN28" s="30"/>
       <c r="AO28" s="109"/>
       <c r="AP28" s="60"/>
       <c r="AQ28" s="61"/>
       <c r="AR28" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS28" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT28" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU28" s="6"/>
@@ -5099,182 +4489,80 @@
       <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="1:56" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="110">
-        <f t="shared" ref="D29:AT29" si="13">SUM(D7:D28)</f>
-        <v>173148</v>
-      </c>
-      <c r="E29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="110">
-        <f t="shared" si="13"/>
-        <v>320</v>
-      </c>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
       <c r="L29" s="110">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L29:AT29" si="5">SUM(L7:L28)</f>
         <v>0</v>
       </c>
       <c r="M29" s="110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N29" s="110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="110">
-        <f t="shared" si="13"/>
-        <v>780</v>
-      </c>
-      <c r="Q29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="111">
-        <f t="shared" si="13"/>
-        <v>186568</v>
-      </c>
-      <c r="AD29" s="111">
-        <f t="shared" si="13"/>
-        <v>173148</v>
-      </c>
-      <c r="AE29" s="111">
-        <f t="shared" si="13"/>
-        <v>4761.5700000000006</v>
-      </c>
-      <c r="AF29" s="111">
-        <f t="shared" si="13"/>
-        <v>1644.9059999999999</v>
-      </c>
-      <c r="AG29" s="111">
-        <f t="shared" si="13"/>
-        <v>369.77</v>
-      </c>
-      <c r="AH29" s="111">
-        <f t="shared" si="13"/>
-        <v>127.49</v>
-      </c>
-      <c r="AI29" s="111">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="111">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="111">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="111">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="111">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN29" s="111">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AO29" s="112">
-        <f>SUM(AO7:AO28)</f>
-        <v>4791.8200000000006</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="111"/>
+      <c r="AH29" s="111"/>
+      <c r="AI29" s="111"/>
+      <c r="AJ29" s="111"/>
+      <c r="AK29" s="111"/>
+      <c r="AL29" s="111"/>
+      <c r="AM29" s="111"/>
+      <c r="AN29" s="111"/>
+      <c r="AO29" s="112"/>
       <c r="AP29" s="111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="113">
-        <f t="shared" si="13"/>
-        <v>1552</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AR29" s="114">
         <f>SUM(AR7:AR28)</f>
-        <v>179884.65999999997</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="114">
         <f>SUM(AS7:AS28)</f>
-        <v>1772.3959999999997</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="114">
-        <f t="shared" si="13"/>
-        <v>220.3959999999999</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AU29" s="115"/>
       <c r="AV29" s="115"/>
@@ -5288,10 +4576,10 @@
       <c r="BD29" s="121"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="171"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34">
@@ -5299,55 +4587,46 @@
         <v>0</v>
       </c>
       <c r="F30" s="34">
-        <f t="shared" ref="F30:R30" si="14">F4-F29</f>
+        <f t="shared" ref="F30:R30" si="6">F4-F29</f>
         <v>0</v>
       </c>
       <c r="G30" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H30" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J30" s="34">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="35">
-        <f>K4+K5-K29</f>
-        <v>570</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="35"/>
       <c r="L30" s="35">
-        <f t="shared" ref="L30:P30" si="15">L4+L5-L29</f>
+        <f t="shared" ref="L30:N30" si="7">L4+L5-L29</f>
         <v>300</v>
       </c>
       <c r="M30" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N30" s="35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="35">
-        <f t="shared" si="15"/>
-        <v>1380</v>
-      </c>
-      <c r="P30" s="35">
-        <f>P4+P5-P29</f>
-        <v>1230</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
       <c r="Q30" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R30" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S30" s="36"/>
@@ -5449,44 +4728,44 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="159" t="s">
+      <c r="D32" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
       <c r="O32" s="23"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="AR32" s="160" t="s">
+      <c r="AR32" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="AS32" s="160"/>
-      <c r="AT32" s="160"/>
+      <c r="AS32" s="161"/>
+      <c r="AT32" s="161"/>
       <c r="AU32" s="14"/>
     </row>
     <row r="33" spans="1:47" ht="15.75">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
       <c r="L33" s="149"/>
       <c r="M33" s="149">
         <v>179884.65999999997</v>
@@ -5503,16 +4782,16 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="178"/>
       <c r="L34" s="45"/>
       <c r="M34" s="128">
         <v>63769.340000000026</v>
@@ -5537,14 +4816,14 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="179"/>
       <c r="L35" s="148"/>
       <c r="M35" s="129">
         <f>M33+M34</f>
@@ -5561,23 +4840,23 @@
         <v>69</v>
       </c>
       <c r="AT35" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:47" ht="15.75">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="179" t="s">
+      <c r="D36" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="179"/>
-      <c r="K36" s="179"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="180"/>
+      <c r="K36" s="180"/>
       <c r="L36" s="148"/>
       <c r="M36" s="128">
         <v>61803</v>
@@ -5600,16 +4879,16 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="176" t="s">
+      <c r="D37" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
       <c r="L37" s="132"/>
       <c r="M37" s="130">
         <f>M35-M36</f>
@@ -5630,16 +4909,16 @@
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="178" t="s">
+      <c r="D38" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
-      <c r="K38" s="178"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="179"/>
       <c r="L38" s="148"/>
       <c r="M38" s="148">
         <v>180000</v>
@@ -5658,16 +4937,16 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="172" t="s">
+      <c r="D39" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="175"/>
       <c r="L39" s="46"/>
       <c r="M39" s="129">
         <f>M37-M38</f>
@@ -5688,22 +4967,22 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="175"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="175"/>
-      <c r="K40" s="175"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="176"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="176"/>
       <c r="L40" s="147"/>
       <c r="M40" s="131">
         <f>M36+M39</f>
         <v>63654</v>
       </c>
-      <c r="AO40" s="192"/>
+      <c r="AO40" s="159"/>
     </row>
     <row r="41" spans="1:47">
       <c r="A41" s="6"/>
@@ -6543,7 +5822,7 @@
   <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6564,104 +5843,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1" ht="7.5" hidden="1" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
     </row>
     <row r="5" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
     </row>
     <row r="6" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="185" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="188" t="s">
+      <c r="A6" s="186" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
       <c r="I6" s="135"/>
       <c r="J6" s="135"/>
       <c r="K6" s="135"/>
@@ -7142,11 +6421,11 @@
       <c r="N28" s="83"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="182"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="183"/>
       <c r="D29" s="67">
         <f t="shared" ref="D29:J29" si="0">SUM(D8:D28)</f>
         <v>0</v>
@@ -7861,16 +7140,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="191"/>
+      <c r="B1" s="192"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="191" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="190"/>
+      <c r="B2" s="191"/>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="155" t="s">
